--- a/Lab3/Doc/lab3.xlsx
+++ b/Lab3/Doc/lab3.xlsx
@@ -16,34 +16,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Vr</t>
-  </si>
-  <si>
-    <t>Vp</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Q3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Cc1</t>
+  </si>
+  <si>
+    <t>Cc2</t>
+  </si>
+  <si>
+    <t>Cs</t>
+  </si>
+  <si>
+    <t>Rsig</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>VSS</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Rd</t>
+  </si>
+  <si>
+    <t>Rg</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Vi</t>
+  </si>
+  <si>
+    <t>Vsig</t>
+  </si>
+  <si>
+    <t>Fsig</t>
+  </si>
+  <si>
+    <t>Rg(chosen)</t>
+  </si>
+  <si>
+    <t>NMOS</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Vto</t>
+  </si>
+  <si>
+    <t>r0</t>
+  </si>
+  <si>
+    <t>Vd</t>
+  </si>
+  <si>
+    <t>Rd(chosen)</t>
+  </si>
+  <si>
+    <t>gm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,13 +117,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,8 +178,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,104 +492,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C4" s="3">
+        <f>100*POWER(10,-9)</f>
+        <v>1.0000000000000001E-7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <f>100*POWER(10,-9)</f>
+        <v>1.0000000000000001E-7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <f>100*POWER(10,-9)</f>
+        <v>1.0000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <f>100*POWER(10,-9)</f>
+        <v>1.0000000000000001E-7</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <f>100*POWER(10,-9)</f>
+        <v>1.0000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
+        <f>E5*(E8/(E8+C7))</f>
+        <v>9.9990000999900019E-2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <f>10*POWER(10,-9)</f>
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>9.3462999999999994</v>
-      </c>
-      <c r="H3">
-        <v>941</v>
-      </c>
-      <c r="I3">
-        <f>H3*0.0000000001</f>
-        <v>9.4100000000000002E-8</v>
-      </c>
-      <c r="K3">
-        <f>0.3/20</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="E4">
-        <f>1/B4</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="F4">
-        <f>B5*B6</f>
-        <v>7.7885833333333335E-2</v>
-      </c>
-      <c r="I4">
-        <f>I3+0.0000001</f>
-        <v>1.941E-7</v>
-      </c>
-      <c r="J4">
-        <f>I4*1000000000</f>
-        <v>194.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="C8" s="3">
+        <f>100*1000</f>
+        <v>100000</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>1000000</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <f>1.941*0.001</f>
+        <v>1.941E-3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <f>(10-4)/C9</f>
+        <v>3091.190108191654</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4">
+        <f>1/C9*1/G4</f>
+        <v>51519.835136527559</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <f>4</f>
         <v>4</v>
       </c>
-      <c r="B5">
-        <f>B3/(B6*B4*B2)</f>
-        <v>4.0126652928043963E-5</v>
-      </c>
-      <c r="C5">
-        <f>B5*1000000000</f>
-        <v>40126.652928043964</v>
-      </c>
-      <c r="F5">
-        <f>F4/E4</f>
-        <v>4.6731500000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1941</v>
-      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <f>G5*G6/G7*(E7-0)</f>
+        <v>9.9990000999900038E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Lab3/Doc/lab3.xlsx
+++ b/Lab3/Doc/lab3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Q2</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>gm</t>
+  </si>
+  <si>
+    <t>r0||RD||RL</t>
+  </si>
+  <si>
+    <t>r0||RD</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -492,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G14"/>
+  <dimension ref="B2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -691,8 +703,8 @@
         <v>28</v>
       </c>
       <c r="E11">
-        <f>G5*G6/G7*(E7-0)</f>
-        <v>9.9990000999900038E-8</v>
+        <f>G5*G6/G7*(4-(-14)-G8)</f>
+        <v>-1.9230000000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -703,6 +715,13 @@
         <v>14</v>
       </c>
       <c r="D12" s="1"/>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <f>G9*E9/(E9+G9)</f>
+        <v>2916.2170831996732</v>
+      </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="1" t="s">
@@ -712,6 +731,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="1"/>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13">
+        <f>F12*C8/(C8+E9)</f>
+        <v>2828.7742920992332</v>
+      </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="1" t="s">
@@ -721,6 +747,22 @@
         <v>14</v>
       </c>
       <c r="D14" s="1"/>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14">
+        <f>-F13*E11</f>
+        <v>5.4397329637068257</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <f>F14*(E8/(E8+C7))</f>
+        <v>5.4391890448023457</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Lab3/Doc/lab3.xlsx
+++ b/Lab3/Doc/lab3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Q2</t>
   </si>
@@ -115,13 +115,43 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Vdd</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Q(grafico)</t>
+  </si>
+  <si>
+    <t>Vg</t>
+  </si>
+  <si>
+    <t>fl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +177,14 @@
       <u/>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,13 +241,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,33 +544,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G15"/>
+  <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -550,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -571,7 +611,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:10">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -589,11 +629,11 @@
         <v>21</v>
       </c>
       <c r="G5">
-        <f>100*POWER(10,-9)</f>
-        <v>1.0000000000000001E-7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <f>100*POWER(10,-6)</f>
+        <v>9.9999999999999991E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -601,17 +641,19 @@
         <f>100*POWER(10,-9)</f>
         <v>1.0000000000000001E-7</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G6">
-        <f>100*POWER(10,-9)</f>
-        <v>1.0000000000000001E-7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <f>100*POWER(10,-6)</f>
+        <v>9.9999999999999991E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -629,11 +671,11 @@
         <v>23</v>
       </c>
       <c r="G7">
-        <f>10*POWER(10,-9)</f>
-        <v>1E-8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <f>10*POWER(10,-6)</f>
+        <v>9.9999999999999991E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -650,11 +692,11 @@
       <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="7">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="G8" s="6">
+        <v>1.9410000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -677,14 +719,14 @@
         <v>51519.835136527559</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:10">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
         <v>10</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E10">
@@ -692,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:10">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -702,12 +744,19 @@
       <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11">
-        <f>G5*G6/G7*(4-(-14)-G8)</f>
-        <v>-1.9230000000000002E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="E11" s="10">
+        <f>(G5*G6/G7)*(0-(-10)-G8)</f>
+        <v>8.0590000000000002E-3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11">
+        <f>E11/(2*3.1415*100*POWER(10,-9))</f>
+        <v>12826.675155180645</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -722,8 +771,16 @@
         <f>G9*E9/(E9+G9)</f>
         <v>2916.2170831996732</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="H12">
+        <f>20*LOG10(22.8)</f>
+        <v>27.158696940009076</v>
+      </c>
+      <c r="I12" s="4">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -735,11 +792,15 @@
         <v>29</v>
       </c>
       <c r="F13">
-        <f>F12*C8/(C8+E9)</f>
-        <v>2828.7742920992332</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <f>F12*C8/(C8+F12)</f>
+        <v>2833.5836332209342</v>
+      </c>
+      <c r="I13">
+        <f>I12/3.14</f>
+        <v>0.15923566878980891</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -752,21 +813,194 @@
       </c>
       <c r="F14">
         <f>-F13*E11</f>
-        <v>5.4397329637068257</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+        <v>-22.83585050012751</v>
+      </c>
+      <c r="I14">
+        <f>I13/1</f>
+        <v>0.15923566878980891</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
       <c r="D15" t="s">
         <v>32</v>
       </c>
       <c r="E15">
         <f>F14*(E8/(E8+C7))</f>
-        <v>5.4391890448023457</v>
-      </c>
+        <v>-22.83356714341317</v>
+      </c>
+      <c r="I15">
+        <f>I14/((E11*F13)*0.0000001+0.0000001)</f>
+        <v>66805.113074927649</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3">
+        <f>1.941*POWER(10,-9)</f>
+        <v>1.9410000000000002E-9</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <f>100*POWER(10,-9)</f>
+        <v>1.0000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="9">
+        <f>C19*C20*C20</f>
+        <v>4.8525000000000006E-8</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <f>100*POWER(10,-9)</f>
+        <v>1.0000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3">
+        <f>C20*C19</f>
+        <v>9.7050000000000015E-9</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22">
+        <f>10*POWER(10,-9)</f>
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4.8634999999999998E-3</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3">
+        <f>4*POWER(10,-6)</f>
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="4">
+        <f>1/C24*1/G19</f>
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3">
+        <f>C24*C23/2</f>
+        <v>9.7269999999999984E-9</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="3">
+        <f>C25*C20</f>
+        <v>4.8634999999999992E-8</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="1"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B17:F17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Lab3/Doc/lab3.xlsx
+++ b/Lab3/Doc/lab3.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -828,9 +828,19 @@
         <f>F14*(E8/(E8+C7))</f>
         <v>-22.83356714341317</v>
       </c>
+      <c r="F15" s="10">
+        <f>20*LOG10(22)</f>
+        <v>26.848453616444125</v>
+      </c>
       <c r="I15">
-        <f>I14/((E11*F13)*0.0000001+0.0000001)</f>
-        <v>66805.113074927649</v>
+        <f>I14/((E11*F13)*POWER(10,-12)+POWER(10,-12))</f>
+        <v>6680511307.4927654</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="I16">
+        <f>I15/1000000</f>
+        <v>6680.5113074927658</v>
       </c>
     </row>
     <row r="17" spans="2:7">
